--- a/Resource/excel/table/D-掉落-掉落配置-(框架定义,策划填写).xlsx
+++ b/Resource/excel/table/D-掉落-掉落配置-(框架定义,策划填写).xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KFrame\Frame\trunk\_resource\excel\table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KFrame\Project\Fighter\trunk\Resource\excel\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26310" windowHeight="13140" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26310" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="dropgroup" sheetId="2" r:id="rId1"/>
@@ -1162,8 +1162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1481,7 +1481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
